--- a/notebooks/LMNA/input/Xiao2023_LMNA.xlsx
+++ b/notebooks/LMNA/input/Xiao2023_LMNA.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robinp/GIT/phenopacket-store/notebooks/LMNA/input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A4E665E-B75C-6645-B352-F5EE629D9CAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4FBCED6-3117-1244-BB88-866F83440F31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4860" yWindow="2740" windowWidth="28040" windowHeight="17440" xr2:uid="{951CCAFE-7098-BB43-874A-D7DEB268FBF0}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="84">
   <si>
     <t>No disease</t>
   </si>
@@ -150,12 +150,6 @@
   </si>
   <si>
     <t>Aunt cardiomyopathy, generalized lipodystrophy</t>
-  </si>
-  <si>
-    <t>39.91a)</t>
-  </si>
-  <si>
-    <t>3.59a)</t>
   </si>
   <si>
     <t>AST</t>
@@ -651,7 +645,7 @@
   <dimension ref="A1:AU7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M7" sqref="M7"/>
+      <selection activeCell="T8" sqref="T8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -697,109 +691,109 @@
         <v>26</v>
       </c>
       <c r="M1" t="s">
+        <v>46</v>
+      </c>
+      <c r="N1" t="s">
+        <v>38</v>
+      </c>
+      <c r="O1" t="s">
+        <v>39</v>
+      </c>
+      <c r="P1" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>41</v>
+      </c>
+      <c r="R1" t="s">
+        <v>47</v>
+      </c>
+      <c r="S1" t="s">
         <v>48</v>
       </c>
-      <c r="N1" t="s">
-        <v>40</v>
-      </c>
-      <c r="O1" t="s">
-        <v>41</v>
-      </c>
-      <c r="P1" t="s">
+      <c r="T1" t="s">
         <v>42</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="U1" t="s">
         <v>43</v>
       </c>
-      <c r="R1" t="s">
-        <v>49</v>
-      </c>
-      <c r="S1" t="s">
-        <v>50</v>
-      </c>
-      <c r="T1" t="s">
+      <c r="V1" t="s">
         <v>44</v>
       </c>
-      <c r="U1" t="s">
+      <c r="W1" t="s">
         <v>45</v>
       </c>
-      <c r="V1" t="s">
-        <v>46</v>
-      </c>
-      <c r="W1" t="s">
-        <v>47</v>
-      </c>
       <c r="X1" t="s">
+        <v>52</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>53</v>
+      </c>
+      <c r="Z1" t="s">
         <v>54</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="AA1" t="s">
         <v>55</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AB1" t="s">
         <v>56</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AC1" t="s">
         <v>57</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AD1" t="s">
         <v>58</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AE1" t="s">
         <v>59</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AF1" t="s">
         <v>60</v>
       </c>
-      <c r="AE1" t="s">
+      <c r="AG1" t="s">
         <v>61</v>
       </c>
-      <c r="AF1" t="s">
+      <c r="AH1" t="s">
         <v>62</v>
       </c>
-      <c r="AG1" t="s">
+      <c r="AI1" t="s">
         <v>63</v>
       </c>
-      <c r="AH1" t="s">
-        <v>64</v>
-      </c>
-      <c r="AI1" t="s">
+      <c r="AJ1" t="s">
         <v>65</v>
       </c>
-      <c r="AJ1" t="s">
+      <c r="AK1" t="s">
+        <v>66</v>
+      </c>
+      <c r="AL1" t="s">
         <v>67</v>
       </c>
-      <c r="AK1" t="s">
+      <c r="AM1" t="s">
         <v>68</v>
       </c>
-      <c r="AL1" t="s">
+      <c r="AN1" t="s">
         <v>69</v>
       </c>
-      <c r="AM1" t="s">
+      <c r="AO1" t="s">
         <v>70</v>
       </c>
-      <c r="AN1" t="s">
+      <c r="AP1" t="s">
         <v>71</v>
       </c>
-      <c r="AO1" t="s">
+      <c r="AQ1" t="s">
         <v>72</v>
       </c>
-      <c r="AP1" t="s">
+      <c r="AR1" t="s">
         <v>73</v>
       </c>
-      <c r="AQ1" t="s">
+      <c r="AS1" t="s">
         <v>74</v>
       </c>
-      <c r="AR1" t="s">
+      <c r="AT1" t="s">
         <v>75</v>
       </c>
-      <c r="AS1" t="s">
+      <c r="AU1" t="s">
         <v>76</v>
-      </c>
-      <c r="AT1" t="s">
-        <v>77</v>
-      </c>
-      <c r="AU1" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="2" spans="1:47" ht="153" x14ac:dyDescent="0.2">
@@ -834,7 +828,7 @@
         <v>11</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="L2" t="s">
         <v>27</v>
@@ -909,10 +903,10 @@
         <v>2.72</v>
       </c>
       <c r="AJ2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="AK2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="AL2">
         <v>25</v>
@@ -939,10 +933,10 @@
         <v>71</v>
       </c>
       <c r="AT2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="AU2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="3" spans="1:47" x14ac:dyDescent="0.2">
@@ -1022,7 +1016,7 @@
         <v>6.3</v>
       </c>
       <c r="Z3" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="AA3">
         <v>6.7</v>
@@ -1082,10 +1076,10 @@
         <v>39</v>
       </c>
       <c r="AT3" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="AU3" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="4" spans="1:47" x14ac:dyDescent="0.2">
@@ -1146,8 +1140,8 @@
       <c r="S4">
         <v>0.64</v>
       </c>
-      <c r="T4" t="s">
-        <v>38</v>
+      <c r="T4">
+        <v>39.909999999999997</v>
       </c>
       <c r="U4">
         <v>6.61</v>
@@ -1174,7 +1168,7 @@
         <v>167.48</v>
       </c>
       <c r="AC4" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="AD4">
         <v>3.03</v>
@@ -1225,10 +1219,10 @@
         <v>69</v>
       </c>
       <c r="AT4" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="AU4" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="5" spans="1:47" x14ac:dyDescent="0.2">
@@ -1317,7 +1311,7 @@
         <v>29.2</v>
       </c>
       <c r="AC5" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="AD5">
         <v>2.4300000000000002</v>
@@ -1335,7 +1329,7 @@
         <v>7.25</v>
       </c>
       <c r="AI5" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="AJ5">
         <v>45</v>
@@ -1368,10 +1362,10 @@
         <v>74</v>
       </c>
       <c r="AT5" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="AU5" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="6" spans="1:47" x14ac:dyDescent="0.2">
@@ -1472,13 +1466,13 @@
         <v>5.3708999999999998</v>
       </c>
       <c r="AG6" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="AH6" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="AI6" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="AJ6">
         <v>39</v>
@@ -1514,7 +1508,7 @@
         <v>2</v>
       </c>
       <c r="AU6" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="7" spans="1:47" x14ac:dyDescent="0.2">
@@ -1552,7 +1546,7 @@
         <v>33</v>
       </c>
       <c r="L7" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="M7">
         <v>59</v>
@@ -1575,8 +1569,8 @@
       <c r="S7">
         <v>0.75</v>
       </c>
-      <c r="T7" t="s">
-        <v>39</v>
+      <c r="T7">
+        <v>3.59</v>
       </c>
       <c r="U7">
         <v>4.26</v>
@@ -1594,7 +1588,7 @@
         <v>14.4</v>
       </c>
       <c r="Z7" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="AA7">
         <v>9.6</v>
@@ -1654,10 +1648,10 @@
         <v>40</v>
       </c>
       <c r="AT7" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="AU7" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
   </sheetData>

--- a/notebooks/LMNA/input/Xiao2023_LMNA.xlsx
+++ b/notebooks/LMNA/input/Xiao2023_LMNA.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robinp/GIT/phenopacket-store/notebooks/LMNA/input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4FBCED6-3117-1244-BB88-866F83440F31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6460105B-ED50-244E-98F7-F1E93779D731}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4860" yWindow="2740" windowWidth="28040" windowHeight="17440" xr2:uid="{951CCAFE-7098-BB43-874A-D7DEB268FBF0}"/>
+    <workbookView xWindow="1500" yWindow="15160" windowWidth="28040" windowHeight="17440" xr2:uid="{951CCAFE-7098-BB43-874A-D7DEB268FBF0}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -645,7 +645,7 @@
   <dimension ref="A1:AU7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="T8" sqref="T8"/>
+      <selection activeCell="M1" sqref="M1:M1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
